--- a/ExcelReporter.Tests/TestData/TotalsPanelRenderTest/TestPanelWithNoData.xlsx
+++ b/ExcelReporter.Tests/TestData/TotalsPanelRenderTest/TestPanelWithNoData.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Test" localSheetId="0">Test!$A$1:$E$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
